--- a/public/sample_uploads/portfolio_investments_for_gains.xlsx
+++ b/public/sample_uploads/portfolio_investments_for_gains.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -227,6 +227,9 @@
     <t xml:space="preserve">Excused Folio Ids</t>
   </si>
   <si>
+    <t xml:space="preserve">Proforma</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAAS Fund</t>
   </si>
   <si>
@@ -255,7 +258,7 @@
     <numFmt numFmtId="166" formatCode="&quot;₹ &quot;#,##0.00;[RED]&quot;₹ -&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,6 +312,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -399,7 +409,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,7 +426,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,7 +712,7 @@
   <dimension ref="A1:ALZ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,7 +725,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.26"/>
@@ -751,208 +765,211 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>43845</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>5000000</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>50000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>43931</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>2400000</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>20000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>44175</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>1750000</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>-10000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>44265</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>10000000</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>-50000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>44293</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>2400000</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>44317</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>1150000</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>-5000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>44362</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="10" t="n">
         <v>2300000</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="11" t="n">
         <v>-10000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
